--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Quest.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9DA301-08B8-1248-930F-78AEC52D906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B38D18-5B8D-5843-9DA6-FB8D7954AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="20" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="6640" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestConfig" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Array,int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>前置任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>任务目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -551,34 +551,34 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -657,34 +657,34 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -708,9 +708,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -724,9 +722,7 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -740,9 +736,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
